--- a/Официальные группы/Группы 2021-2022/Списки для портала ЛЭМБ_2021.xlsx
+++ b/Официальные группы/Группы 2021-2022/Списки для портала ЛЭМБ_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Lab-processings/Официальные группы/Группы 2021-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391722CF-E02C-5B4F-8EE3-377A3178606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB3407-0275-EC4C-9C19-01BF4EEE68EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15520" firstSheet="3" activeTab="8" xr2:uid="{354C2005-240E-1043-8196-2F7CAE6DAB42}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28640" windowHeight="15320" firstSheet="3" activeTab="8" xr2:uid="{354C2005-240E-1043-8196-2F7CAE6DAB42}"/>
   </bookViews>
   <sheets>
     <sheet name="122" sheetId="2" r:id="rId1"/>
@@ -997,7 +997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1025,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1106,6 +1112,8 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3999,7 +4007,7 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+      <selection activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4251,9 +4259,15 @@
       <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="27">
+        <v>39317</v>
+      </c>
+      <c r="F14" s="28">
+        <v>14</v>
+      </c>
+      <c r="G14" s="28">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -4314,7 +4328,9 @@
       <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="27">
+        <v>40132</v>
+      </c>
       <c r="F17" s="13">
         <v>11</v>
       </c>
@@ -4937,7 +4953,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5198,9 +5214,15 @@
       <c r="D15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="27">
+        <v>38873</v>
+      </c>
+      <c r="F15" s="28">
+        <v>15</v>
+      </c>
+      <c r="G15" s="28">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
